--- a/Excel/#ConstValue.xlsx
+++ b/Excel/#ConstValue.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sining/Code/Sining/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sining/Code/HBYXCoin/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200EA04D-E609-D141-BEAD-DE52249731A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A99069-C661-8A4B-B887-08B49BF58945}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,49 +20,73 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remark</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoinRechargeDBString</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
   <si>
     <t>string</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>TestDB</t>
+    <t>充值记录数据库地址</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Name</t>
+    <t>CoinRechargeFragmentationCount</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Type</t>
+    <t>int</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Value</t>
+    <t>充值记录表分片总数</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Remark</t>
+    <t>FinancingDBString</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>FinancingFragmentationCount</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务记录数据库地址</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>PassWord</t>
+    <t>财务记录表分片总数</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>mongodb://192.168.0.30:27017</t>
     <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试数据</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestDB123</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -237,8 +261,17 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -427,6 +460,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39991454817346722"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,7 +614,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -702,8 +741,11 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -716,8 +758,11 @@
     <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -725,11 +770,23 @@
     <xf numFmtId="0" fontId="19" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="11" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="10" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -755,6 +812,7 @@
     <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="42" builtinId="8"/>
     <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
@@ -1083,59 +1141,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:E5"/>
+  <dimension ref="B3:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="214" zoomScaleNormal="214" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="13.1640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="34.5" style="4" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="5" width="27" style="7" customWidth="1"/>
+    <col min="4" max="4" width="27" style="9" customWidth="1"/>
+    <col min="5" max="5" width="30" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:5">
       <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>7</v>
+      <c r="B4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>7</v>
+      <c r="D5" s="10">
+        <v>20</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="10">
+        <v>20</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
